--- a/assets/files/excel/2146.xlsx
+++ b/assets/files/excel/2146.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\Эксель-интерактив\Задачи в Приложение для ПК\Excel-решения_Сапунова\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\3-й этап\Эксель-интерактив\Excel-решения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="U7iaXbtjLGVtaR5lrouSxFgWtkovF9UDQWq7GIhTNxXqykZic93DO2oQCSD8EbcTlkkKhKLR/yE6UhK9qfCjew==" workbookSaltValue="EU2ddeLJAk1G9O46GN4NAg==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="TnnfmRgj3StUNAJf6iCiSamLe8mPgTomkm8Yd3fyRE9OEsjO7Es/QUpxle/xvcdnbwMvCXzVDrGpZnCbXQhyJQ==" workbookSaltValue="50RBVm4Q+rUlm5mcb+r0VA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>Задача Учебного пособия №</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Ответ:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - введите в ячейку целочисленное значение</t>
   </si>
 </sst>
 </file>
@@ -1037,9 +1040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1439,6 +1440,9 @@
       </c>
       <c r="C28" s="43"/>
       <c r="D28" s="39"/>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="44" t="s">
@@ -1446,9 +1450,12 @@
       </c>
       <c r="C29" s="45"/>
       <c r="D29" s="40"/>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tOP+y24p2jJ7qcGR6dZebtuCanyN6ofsCyHCpCWxre4UFcf2zqNrSd0174tA48woF/1ro/JTRsB4K1LArHQDPw==" saltValue="k2kMn1y707pqQUH0my+irA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GfS+0+u2tcEmRWMRoJpRvW1qqyuhbxCHiLfzfqoxLJHdSdzoRRXnV4UXVqtHIRclWfIWC3jGrCTQJYnpLMI8tg==" saltValue="yNzSpMNSz4p1Sxuv6EfDkg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
@@ -1467,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
